--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,61 +43,67 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>crap</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>ripped</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>plastic</t>
@@ -106,162 +112,150 @@
     <t>apart</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>worked</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
+    <t>better</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>box</t>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -271,70 +265,70 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>expansion</t>
+    <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>elf</t>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
@@ -343,13 +337,10 @@
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>nice</t>
   </si>
   <si>
     <t>play</t>
@@ -713,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -800,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -824,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -832,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -874,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7727272727272727</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5">
         <v>0.8461538461538461</v>
@@ -932,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K6">
         <v>0.8148148148148148</v>
@@ -982,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1024,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6901408450704225</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6559139784946236</v>
+        <v>0.640625</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>0.78125</v>
+        <v>0.703125</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10">
         <v>0.660377358490566</v>
@@ -1182,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6190476190476191</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>0.5652173913043478</v>
+        <v>0.5552367288378766</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6067961165048543</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.5480631276901005</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>315</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6013513513513513</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>0.520746887966805</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="L13">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M13">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1323,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14">
-        <v>0.4631147540983607</v>
+        <v>0.4598360655737705</v>
       </c>
       <c r="L14">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M14">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>0.3614457831325301</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>0.3516819571865443</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>212</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>0.3404255319148936</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1524,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1532,13 +1523,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>0.3083333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1574,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1573,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5454545454545454</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>0.291005291005291</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L19">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1623,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20">
-        <v>0.2830188679245283</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L20">
         <v>15</v>
@@ -1674,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.472463768115942</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C21">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.462962962962963</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K22">
-        <v>0.1984126984126984</v>
+        <v>0.208</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4251968503937008</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>0.1973684210526316</v>
@@ -1832,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1850,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K24">
-        <v>0.1888111888111888</v>
+        <v>0.1953125</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1874,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1882,13 +1873,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3953488372093023</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1900,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25">
-        <v>0.1875</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3947368421052632</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1950,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>0.1827956989247312</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1974,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>152</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1982,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3838862559241706</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2000,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K27">
-        <v>0.1807228915662651</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2024,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>204</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2032,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3833333333333334</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2050,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>0.1724137931034483</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2074,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3734939759036144</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K29">
-        <v>0.16</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2124,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>105</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2132,13 +2123,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3673469387755102</v>
+        <v>0.3649289099526066</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2150,31 +2141,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K30">
-        <v>0.1507449605609115</v>
+        <v>0.1527655838454785</v>
       </c>
       <c r="L30">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M30">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2182,13 +2173,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.359375</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2200,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K31">
-        <v>0.1452991452991453</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2224,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2232,13 +2223,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3518518518518519</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2250,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K32">
-        <v>0.09740259740259741</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2274,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>139</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2282,13 +2273,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3515625</v>
+        <v>0.3125</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2300,19 +2291,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K33">
-        <v>0.08288770053475936</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2324,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2332,13 +2323,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3370786516853932</v>
+        <v>0.3125</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2350,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34">
+        <v>0.07017543859649122</v>
+      </c>
+      <c r="L34">
         <v>108</v>
       </c>
-      <c r="K34">
-        <v>0.07082521117608837</v>
-      </c>
-      <c r="L34">
-        <v>109</v>
-      </c>
       <c r="M34">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N34">
         <v>0.98</v>
@@ -2374,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2382,13 +2373,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2400,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K35">
-        <v>0.06128133704735376</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2424,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>337</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2432,7 +2423,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -2450,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K36">
-        <v>0.05836575875486381</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="L36">
         <v>15</v>
@@ -2474,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2482,49 +2473,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3015873015873016</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K37">
-        <v>0.04938271604938271</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>308</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2532,13 +2523,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2962962962962963</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2550,31 +2541,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K38">
-        <v>0.03457446808510638</v>
-      </c>
-      <c r="L38">
-        <v>26</v>
-      </c>
-      <c r="M38">
-        <v>26</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>726</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2582,7 +2549,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2909090909090909</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C39">
         <v>16</v>
@@ -2600,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2608,13 +2575,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2623762376237624</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2626,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2634,13 +2601,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2448979591836735</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2652,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2660,13 +2627,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2318840579710145</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2678,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>53</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2686,13 +2653,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2268041237113402</v>
+        <v>0.18</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2704,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2712,13 +2679,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.188034188034188</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2730,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>95</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2738,25 +2705,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1740506329113924</v>
+        <v>0.1768202080237742</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>261</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2764,13 +2731,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1666666666666667</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2782,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2790,13 +2757,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1580459770114943</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="C47">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2808,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>293</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2816,25 +2783,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1557863501483679</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C48">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>569</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2842,25 +2809,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1455696202531646</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2868,13 +2835,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1440677966101695</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2886,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2894,13 +2861,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.14</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2912,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>172</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2920,25 +2887,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1233480176211454</v>
+        <v>0.1368653421633554</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2946,7 +2913,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1210191082802548</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C53">
         <v>19</v>
@@ -2964,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2972,13 +2939,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1169354838709677</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2990,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>219</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2998,13 +2965,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1161048689138577</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3016,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3050,13 +3017,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1121495327102804</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3068,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3076,13 +3043,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1071428571428571</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3094,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3102,13 +3069,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0949367088607595</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3120,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3128,25 +3095,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.0855614973262032</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E60">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>171</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3154,25 +3121,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08258928571428571</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C61">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="F61">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>411</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3180,25 +3147,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07853403141361257</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>176</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3206,13 +3173,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07123287671232877</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3224,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3232,13 +3199,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06785714285714285</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3250,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>261</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3258,25 +3225,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06754530477759473</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="C65">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D65">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F65">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3284,25 +3251,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04788732394366197</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="C66">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>338</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3310,13 +3277,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04662004662004662</v>
+        <v>0.04198473282442748</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E67">
         <v>0.2</v>
@@ -3328,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>409</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3336,77 +3303,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.03834355828220859</v>
+        <v>0.03374233128834356</v>
       </c>
       <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
         <v>25</v>
       </c>
-      <c r="D68">
-        <v>28</v>
-      </c>
       <c r="E68">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F68">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.03557814485387548</v>
-      </c>
-      <c r="C69">
-        <v>28</v>
-      </c>
-      <c r="D69">
-        <v>35</v>
-      </c>
-      <c r="E69">
-        <v>0.2</v>
-      </c>
-      <c r="F69">
-        <v>0.8</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.0351288056206089</v>
-      </c>
-      <c r="C70">
-        <v>15</v>
-      </c>
-      <c r="D70">
-        <v>17</v>
-      </c>
-      <c r="E70">
-        <v>0.12</v>
-      </c>
-      <c r="F70">
-        <v>0.88</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>412</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
